--- a/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\d.omarbayev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2CC1A2-376C-4680-B54A-BE318F6C3FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C28EB-0A27-4A5F-80E1-0CF94E765A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="СНО Приход" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Остатки СНО  ТОО "Казыкурт-Юг" на 2019 год (тонн)</t>
   </si>
@@ -33,46 +33,7 @@
     <t>Остаток СНО</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Поступление СНО</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
   </si>
   <si>
     <t>Поступление СНО (резервуар №1)</t>
@@ -80,12 +41,15 @@
   <si>
     <t>Поступление СНО (резервуар №2)</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,25 +70,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,12 +140,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,14 +432,14 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
@@ -487,132 +450,109 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C28EB-0A27-4A5F-80E1-0CF94E765A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E50C52-6A21-4BE9-9DAE-9DBC223C9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Остатки СНО  ТОО "Казыкурт-Юг" на 2019 год (тонн)</t>
   </si>
@@ -36,13 +36,13 @@
     <t>Поступление СНО</t>
   </si>
   <si>
-    <t>Поступление СНО (резервуар №1)</t>
+    <t>Дата</t>
   </si>
   <si>
-    <t>Поступление СНО (резервуар №2)</t>
+    <t>Поступление СНО (№1)</t>
   </si>
   <si>
-    <t>Дата</t>
+    <t>Поступление СНО (№2)</t>
   </si>
 </sst>
 </file>
@@ -140,14 +140,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,16 +432,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -450,105 +450,105 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/СНО Приход.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E50C52-6A21-4BE9-9DAE-9DBC223C9A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4751040-EDF6-4207-92D5-E0BB6C5864A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СНО Приход" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'СНО Приход'!$A$3:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -432,7 +435,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +554,7 @@
       <c r="E15" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E3" xr:uid="{03A53DE7-9834-49BB-A4C8-F4C1B53C3A74}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
